--- a/documentation/codeFileTable.xlsx
+++ b/documentation/codeFileTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VR-7\Documents\Khilesh\EMG Project\Deliverables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VR-7\source\repos\SpasticityClient\SpasticityClient\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>AngleChart.xaml</t>
   </si>
@@ -186,13 +186,34 @@
   </si>
   <si>
     <t>Both Prism.WPF and Prism.Core are needed for commanding interface</t>
+  </si>
+  <si>
+    <t>Fixes?</t>
+  </si>
+  <si>
+    <t>Remove redundant dependencies</t>
+  </si>
+  <si>
+    <t>Investigate port auto detection</t>
+  </si>
+  <si>
+    <t>Remove redundant constructor</t>
+  </si>
+  <si>
+    <t>Address hardcoding of excel version</t>
+  </si>
+  <si>
+    <t>Remove unused header references/parts</t>
+  </si>
+  <si>
+    <t>Remove old commanding interface if it doesn't break the program</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,13 +221,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -332,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -347,9 +381,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -359,9 +390,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -387,22 +415,32 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -417,7 +455,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -442,6 +482,39 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -461,37 +534,25 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -566,13 +627,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -583,6 +637,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -621,24 +682,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D1:F12" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
-  <autoFilter ref="D1:F12"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Code File" dataDxfId="10"/>
-    <tableColumn id="2" name="MVVM Role" dataDxfId="9"/>
-    <tableColumn id="3" name="Description" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D1:G12" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="D1:G12"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Code File" dataDxfId="11"/>
+    <tableColumn id="2" name="MVVM Role" dataDxfId="10"/>
+    <tableColumn id="3" name="Description" dataDxfId="9"/>
+    <tableColumn id="4" name="Fixes?" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="H14:J22" totalsRowShown="0" headerRowDxfId="3" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="H14:J22" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="H14:J22"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Dependency" dataDxfId="2"/>
-    <tableColumn id="2" name="Documentation" dataDxfId="0"/>
-    <tableColumn id="3" name="Description" dataDxfId="1"/>
+    <tableColumn id="2" name="Documentation" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -907,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K22"/>
+  <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:J22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,12 +981,13 @@
     <col min="4" max="4" width="28.140625" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
     <col min="6" max="6" width="70.85546875" customWidth="1"/>
+    <col min="7" max="7" width="41.42578125" customWidth="1"/>
     <col min="8" max="8" width="30.85546875" customWidth="1"/>
     <col min="9" max="9" width="40.42578125" customWidth="1"/>
     <col min="10" max="10" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="D1" s="3" t="s">
         <v>11</v>
@@ -935,252 +998,280 @@
       <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G3" s="8"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="8"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G5" s="8"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="2:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="G6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G8" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="G10" s="8"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="G11" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H14" s="13" t="s">
+      <c r="G12" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="H15" s="16" t="s">
+    <row r="15" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="H16" s="16" t="s">
+    <row r="16" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="8:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="8:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="8:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="8:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="8:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="8:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="10" t="s">
         <v>53</v>
       </c>
     </row>
